--- a/setups/sakt_loop_ednet.xlsx
+++ b/setups/sakt_loop_ednet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Desktop/setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819C86B3-3E4D-C046-818A-55704348F575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8BBC2A-F4A5-4C49-99BE-84D304C49539}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{BEED0915-D9D8-6748-8C46-B39D3232B2AB}"/>
+    <workbookView xWindow="6840" yWindow="2640" windowWidth="28040" windowHeight="17440" xr2:uid="{BEED0915-D9D8-6748-8C46-B39D3232B2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>max_length</t>
   </si>
@@ -69,25 +69,7 @@
     <t>num_epochs</t>
   </si>
   <si>
-    <t>exp_status</t>
-  </si>
-  <si>
     <t>repeat</t>
-  </si>
-  <si>
-    <t>result1</t>
-  </si>
-  <si>
-    <t>result2</t>
-  </si>
-  <si>
-    <t>result3</t>
-  </si>
-  <si>
-    <t>logdir</t>
-  </si>
-  <si>
-    <t>savedir</t>
   </si>
   <si>
     <t>optimizer</t>
@@ -448,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469A6B43-C1D4-1041-BBDC-DB0369C7A802}">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,7 +452,7 @@
     <col min="14" max="14" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -499,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -508,42 +490,21 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -561,10 +522,10 @@
         <v>100</v>
       </c>
       <c r="I2">
-        <v>0.01</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -579,88 +540,38 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B6">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
